--- a/database - circanual/percentage offspring/PO-Dam-percentage of offspring by parent birthmonth.xlsx
+++ b/database - circanual/percentage offspring/PO-Dam-percentage of offspring by parent birthmonth.xlsx
@@ -4500,31 +4500,31 @@
         <v>11</v>
       </c>
       <c r="B108">
-        <v>5.555555555555555</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="D108">
-        <v>3.703703703703703</v>
+        <v>3.773584905660377</v>
       </c>
       <c r="F108">
-        <v>16.66666666666666</v>
+        <v>15.09433962264151</v>
       </c>
       <c r="G108">
-        <v>16.66666666666666</v>
+        <v>16.9811320754717</v>
       </c>
       <c r="H108">
-        <v>18.51851851851852</v>
+        <v>18.86792452830189</v>
       </c>
       <c r="I108">
-        <v>16.66666666666666</v>
+        <v>16.9811320754717</v>
       </c>
       <c r="J108">
-        <v>5.555555555555555</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="K108">
-        <v>12.96296296296296</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="M108">
-        <v>3.703703703703703</v>
+        <v>3.773584905660377</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -5647,40 +5647,40 @@
         <v>3</v>
       </c>
       <c r="B136">
-        <v>6.273062730627306</v>
+        <v>6.513409961685824</v>
       </c>
       <c r="C136">
-        <v>8.856088560885608</v>
+        <v>6.130268199233716</v>
       </c>
       <c r="D136">
-        <v>11.07011070110701</v>
+        <v>10.727969348659</v>
       </c>
       <c r="E136">
-        <v>6.273062730627306</v>
+        <v>6.513409961685824</v>
       </c>
       <c r="F136">
-        <v>9.594095940959409</v>
+        <v>9.961685823754788</v>
       </c>
       <c r="G136">
-        <v>6.642066420664207</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="H136">
-        <v>11.07011070110701</v>
+        <v>11.49425287356322</v>
       </c>
       <c r="I136">
-        <v>9.594095940959409</v>
+        <v>9.961685823754788</v>
       </c>
       <c r="J136">
-        <v>11.43911439114391</v>
+        <v>11.87739463601533</v>
       </c>
       <c r="K136">
-        <v>5.166051660516605</v>
+        <v>5.363984674329502</v>
       </c>
       <c r="L136">
-        <v>7.380073800738007</v>
+        <v>7.662835249042145</v>
       </c>
       <c r="M136">
-        <v>6.642066420664207</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -5693,40 +5693,40 @@
         <v>4</v>
       </c>
       <c r="B137">
-        <v>11.91709844559585</v>
+        <v>10.99476439790576</v>
       </c>
       <c r="C137">
-        <v>8.290155440414509</v>
+        <v>8.37696335078534</v>
       </c>
       <c r="D137">
-        <v>6.735751295336788</v>
+        <v>6.806282722513089</v>
       </c>
       <c r="E137">
-        <v>7.253886010362693</v>
+        <v>7.329842931937172</v>
       </c>
       <c r="F137">
-        <v>10.36269430051813</v>
+        <v>10.47120418848167</v>
       </c>
       <c r="G137">
-        <v>7.253886010362693</v>
+        <v>7.329842931937172</v>
       </c>
       <c r="H137">
-        <v>11.39896373056995</v>
+        <v>11.51832460732984</v>
       </c>
       <c r="I137">
-        <v>6.735751295336788</v>
+        <v>6.806282722513089</v>
       </c>
       <c r="J137">
-        <v>8.290155440414509</v>
+        <v>8.37696335078534</v>
       </c>
       <c r="K137">
-        <v>7.772020725388601</v>
+        <v>7.853403141361256</v>
       </c>
       <c r="L137">
-        <v>6.735751295336788</v>
+        <v>6.806282722513089</v>
       </c>
       <c r="M137">
-        <v>7.253886010362693</v>
+        <v>7.329842931937172</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -5785,40 +5785,40 @@
         <v>6</v>
       </c>
       <c r="B139">
-        <v>12.90322580645161</v>
+        <v>8.75</v>
       </c>
       <c r="C139">
-        <v>11.82795698924731</v>
+        <v>11.25</v>
       </c>
       <c r="D139">
-        <v>8.60215053763441</v>
+        <v>5</v>
       </c>
       <c r="E139">
-        <v>11.82795698924731</v>
+        <v>11.25</v>
       </c>
       <c r="F139">
-        <v>7.526881720430108</v>
+        <v>8.75</v>
       </c>
       <c r="G139">
-        <v>10.75268817204301</v>
+        <v>12.5</v>
       </c>
       <c r="H139">
-        <v>9.67741935483871</v>
+        <v>11.25</v>
       </c>
       <c r="I139">
-        <v>4.301075268817205</v>
+        <v>5</v>
       </c>
       <c r="J139">
-        <v>3.225806451612903</v>
+        <v>3.75</v>
       </c>
       <c r="K139">
-        <v>4.301075268817205</v>
+        <v>5</v>
       </c>
       <c r="L139">
-        <v>8.60215053763441</v>
+        <v>10</v>
       </c>
       <c r="M139">
-        <v>6.451612903225806</v>
+        <v>7.5</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -5873,35 +5873,26 @@
       <c r="A141">
         <v>8</v>
       </c>
-      <c r="B141">
-        <v>11.42857142857143</v>
-      </c>
-      <c r="D141">
-        <v>5.714285714285714</v>
-      </c>
-      <c r="E141">
-        <v>5.714285714285714</v>
-      </c>
       <c r="F141">
-        <v>8.571428571428571</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="G141">
-        <v>8.571428571428571</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="H141">
-        <v>11.42857142857143</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="I141">
-        <v>11.42857142857143</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="J141">
-        <v>17.14285714285714</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="K141">
-        <v>11.42857142857143</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="M141">
-        <v>8.571428571428571</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -5975,41 +5966,38 @@
       <c r="A144">
         <v>11</v>
       </c>
-      <c r="B144">
-        <v>4.651162790697675</v>
-      </c>
       <c r="C144">
-        <v>1.162790697674419</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="D144">
-        <v>6.976744186046512</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="E144">
-        <v>1.162790697674419</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="F144">
-        <v>10.46511627906977</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="G144">
-        <v>16.27906976744186</v>
+        <v>17.72151898734177</v>
       </c>
       <c r="H144">
-        <v>10.46511627906977</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="I144">
-        <v>18.6046511627907</v>
+        <v>20.25316455696203</v>
       </c>
       <c r="J144">
-        <v>11.62790697674419</v>
+        <v>12.65822784810127</v>
       </c>
       <c r="K144">
-        <v>10.46511627906977</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="L144">
-        <v>2.325581395348837</v>
+        <v>2.531645569620253</v>
       </c>
       <c r="M144">
-        <v>5.813953488372093</v>
+        <v>6.329113924050633</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
